--- a/OptX/TPEC Paper/Re.xlsx
+++ b/OptX/TPEC Paper/Re.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hussein.sharadga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hussein.sharadga\Desktop\OptX\TPEC Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8FEDC4-4F76-4A01-8C32-7257702A243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ECAC09-F27F-46EB-AC24-0EA90F58C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,38 +20,26 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$BG$13:$BG$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$BH$13:$BH$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$6:$F$12</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$6:$G$12</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$F$16:$F$30</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$G$16:$G$30</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$O$78:$O$92</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$P$78:$P$92</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$BG$23:$BG$37</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$BH$23:$BH$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$BG$13:$BG$19</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$BG$23:$BG$37</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$BH$23:$BH$37</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$K$29:$K$43</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$L$29:$L$43</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet2!$M$29:$M$43</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet2!$K$19:$K$25</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet2!$L$19:$L$25</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet2!$M$19:$M$25</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet3!$O$27:$O$41</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet3!$M$27:$M$41</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$BH$13:$BH$19</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet4!$J$14:$J$28</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet4!$K$14:$K$28</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet5!$J$18:$J$24</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet5!$K$18:$K$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$BG$23:$BG$37</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$BH$23:$BH$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$BG$23:$BG$37</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$BH$23:$BH$37</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$6:$F$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$K$29:$K$43</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$L$29:$L$43</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$M$29:$M$43</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$K$19:$K$25</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$L$19:$L$25</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$M$19:$M$25</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$M$27:$M$41</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$O$27:$O$41</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet4!$J$14:$J$28</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet4!$K$14:$K$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet5!$J$18:$J$24</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet5!$K$18:$K$24</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$6:$G$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$16:$F$30</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$16:$G$30</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$78:$O$92</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$P$78:$P$92</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$O$67:$O$73</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$P$67:$P$73</definedName>
   </definedNames>
@@ -76,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="223">
   <si>
     <t>Oringal Blocks</t>
   </si>
@@ -739,6 +727,12 @@
   </si>
   <si>
     <t>RELAXED</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>multiple</t>
   </si>
 </sst>
 </file>
@@ -798,12 +792,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -813,7 +807,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C5DB2B73-E4B5-4B87-9F4B-FB3C287AA905}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Tighter Cost Blocks</cx:v>
             </cx:txData>
           </cx:tx>
@@ -826,7 +820,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7F372E08-C765-4C6F-9623-609047773C6C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Oringal Blocks</cx:v>
             </cx:txData>
           </cx:tx>
@@ -885,12 +879,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -932,12 +926,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1026,12 +1020,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1073,17 +1067,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1132,17 +1126,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1191,7 +1185,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1226,7 +1220,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1261,12 +1255,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7923,7 +7917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:BH152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BG23" sqref="BG23:BH37"/>
     </sheetView>
   </sheetViews>
@@ -10243,8 +10237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7524F193-3712-42D0-B848-FAB2D583496B}">
   <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27:M41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10305,6 +10299,12 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>222</v>
+      </c>
+      <c r="O16" t="s">
+        <v>221</v>
+      </c>
       <c r="Y16" t="s">
         <v>15</v>
       </c>
@@ -10330,6 +10330,10 @@
       <c r="O18">
         <v>2.7160000000000002</v>
       </c>
+      <c r="Q18">
+        <f>AVERAGEA(M18:M23)</f>
+        <v>1.0519999999999998</v>
+      </c>
       <c r="Y18" t="s">
         <v>103</v>
       </c>
@@ -10371,6 +10375,10 @@
       </c>
       <c r="O21">
         <v>1.498</v>
+      </c>
+      <c r="Q21">
+        <f>AVERAGEA(M27:M41)</f>
+        <v>13.614733333333334</v>
       </c>
       <c r="Y21" t="s">
         <v>5</v>

--- a/OptX/TPEC Paper/Re.xlsx
+++ b/OptX/TPEC Paper/Re.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hussein.sharadga\Desktop\OptX\TPEC Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ECAC09-F27F-46EB-AC24-0EA90F58C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088A665F-DC9A-4FEC-96C6-E38FD24879C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,32 +16,33 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$6:$F$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$O$67:$O$73</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$P$67:$P$73</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$K$29:$K$43</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$L$29:$L$43</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$M$29:$M$43</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$K$19:$K$25</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$L$19:$L$25</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$M$19:$M$25</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$M$27:$M$41</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$O$27:$O$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$O$27:$O$41</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$M$27:$M$41</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Sheet4!$J$14:$J$28</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Sheet4!$K$14:$K$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$O$78:$O$92</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Sheet5!$J$18:$J$24</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Sheet5!$K$18:$K$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$6:$G$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$16:$F$30</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$16:$G$30</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$78:$O$92</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$P$78:$P$92</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$O$67:$O$73</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$P$67:$P$73</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$P$78:$P$92</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$6:$F$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$6:$G$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$16:$F$30</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$16:$G$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="312">
   <si>
     <t>Oringal Blocks</t>
   </si>
@@ -733,6 +734,273 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.588</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.802</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.057</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.642</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.464</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.846</t>
+  </si>
+  <si>
+    <t>Time- mins: 6.3</t>
+  </si>
+  <si>
+    <t>Time- mins: 6.614</t>
+  </si>
+  <si>
+    <t>Time- mins: 4.58</t>
+  </si>
+  <si>
+    <t>Time- mins: 8.394</t>
+  </si>
+  <si>
+    <t>Time- mins: 5.563</t>
+  </si>
+  <si>
+    <t>Time- mins: 28.091</t>
+  </si>
+  <si>
+    <t>Time- mins: 6.124</t>
+  </si>
+  <si>
+    <t>Time- mins: 5.897</t>
+  </si>
+  <si>
+    <t>Time- mins: 9.619</t>
+  </si>
+  <si>
+    <t>Time- mins: 3.44</t>
+  </si>
+  <si>
+    <t>Time- mins: 4.833</t>
+  </si>
+  <si>
+    <t>Time- mins: 4.498</t>
+  </si>
+  <si>
+    <t>Time- mins: 6.261</t>
+  </si>
+  <si>
+    <t>Time- mins: 21.385</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.65</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.913</t>
+  </si>
+  <si>
+    <t>Time- mins: 4.511</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.104</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.467</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.566</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.11</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.206</t>
+  </si>
+  <si>
+    <t>Time- mins: 3.456</t>
+  </si>
+  <si>
+    <t>Time- mins: 4.214</t>
+  </si>
+  <si>
+    <t>Time- mins: 4.34</t>
+  </si>
+  <si>
+    <t>Time- mins: 3.275</t>
+  </si>
+  <si>
+    <t>Time- mins: 23.732</t>
+  </si>
+  <si>
+    <t>Time- mins: 3.386</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.855</t>
+  </si>
+  <si>
+    <t>Time- mins: 7.913</t>
+  </si>
+  <si>
+    <t>Time- mins: 11.03</t>
+  </si>
+  <si>
+    <t>Time- mins: 6.628</t>
+  </si>
+  <si>
+    <t>Time- mins: 3.916</t>
+  </si>
+  <si>
+    <t>Time- mins: 5.296</t>
+  </si>
+  <si>
+    <t>Time- mins: 5.814</t>
+  </si>
+  <si>
+    <t>Time- mins: 4.517</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.017</t>
+  </si>
+  <si>
+    <t>Time- mins: 10.349</t>
+  </si>
+  <si>
+    <t>relaxed</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.568</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.005</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.242</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.142</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.265</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.374</t>
+  </si>
+  <si>
+    <t>Time- mins: 3.628</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.179</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.401</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.204</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.842</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.867</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.698</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.952</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.292</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.231</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.062</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.035</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.852</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.053</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.188</t>
+  </si>
+  <si>
+    <t>Time- mins: 3.912</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.019</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.181</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.525</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.724</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.281</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.815</t>
+  </si>
+  <si>
+    <t>Time- mins: 4.651</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.095</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.233</t>
+  </si>
+  <si>
+    <t>Time- mins: 6.079</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.154</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.643</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.776</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.605</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.967</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.786</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.011</t>
+  </si>
+  <si>
+    <t>Time- mins: 1.973</t>
+  </si>
+  <si>
+    <t>Time- mins: 3.97</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.261</t>
+  </si>
+  <si>
+    <t>Time- mins: 2.595</t>
   </si>
 </sst>
 </file>
@@ -792,12 +1060,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -807,7 +1075,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C5DB2B73-E4B5-4B87-9F4B-FB3C287AA905}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Tighter Cost Blocks</cx:v>
             </cx:txData>
           </cx:tx>
@@ -820,7 +1088,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7F372E08-C765-4C6F-9623-609047773C6C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Oringal Blocks</cx:v>
             </cx:txData>
           </cx:tx>
@@ -926,12 +1194,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -973,12 +1241,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1020,12 +1288,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1185,7 +1453,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1220,7 +1488,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7918,7 +8186,7 @@
   <dimension ref="A5:BH152"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BG23" sqref="BG23:BH37"/>
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8534,7 +8802,11 @@
         <v>1.6830000000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:60" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <f>AVERAGEA(F16:F30)</f>
+        <v>1.6629333333333336</v>
+      </c>
       <c r="V33" t="s">
         <v>15</v>
       </c>
@@ -8557,7 +8829,7 @@
         <v>1.552</v>
       </c>
     </row>
-    <row r="34" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V34" t="s">
         <v>3</v>
       </c>
@@ -8580,7 +8852,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="35" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V35" t="s">
         <v>16</v>
       </c>
@@ -8603,7 +8875,7 @@
         <v>1.2529999999999999</v>
       </c>
     </row>
-    <row r="36" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V36">
         <v>112040589.180438</v>
       </c>
@@ -8626,7 +8898,7 @@
         <v>1.349</v>
       </c>
     </row>
-    <row r="37" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V37" t="s">
         <v>15</v>
       </c>
@@ -8649,7 +8921,7 @@
         <v>1.841</v>
       </c>
     </row>
-    <row r="38" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V38" t="s">
         <v>5</v>
       </c>
@@ -8666,7 +8938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V39" t="s">
         <v>17</v>
       </c>
@@ -8674,7 +8946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V40">
         <v>107705525.23089799</v>
       </c>
@@ -8682,7 +8954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:60" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -8693,7 +8965,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V42" t="s">
         <v>7</v>
       </c>
@@ -8701,7 +8973,7 @@
         <v>93282658.5287797</v>
       </c>
     </row>
-    <row r="43" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V43" t="s">
         <v>18</v>
       </c>
@@ -8709,7 +8981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:60" x14ac:dyDescent="0.35">
       <c r="V44">
         <v>126928813.93268099</v>
       </c>
@@ -8717,7 +8989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:60" x14ac:dyDescent="0.35">
       <c r="J45" t="s">
         <v>15</v>
       </c>
@@ -8728,7 +9000,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:60" x14ac:dyDescent="0.35">
       <c r="J46" t="s">
         <v>25</v>
       </c>
@@ -8739,7 +9011,7 @@
         <v>97080300.000611499</v>
       </c>
     </row>
-    <row r="47" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:60" x14ac:dyDescent="0.35">
       <c r="J47" t="s">
         <v>26</v>
       </c>
@@ -8750,7 +9022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="3:60" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:60" x14ac:dyDescent="0.35">
       <c r="J48">
         <v>93282658.5288001</v>
       </c>
@@ -10235,10 +10507,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7524F193-3712-42D0-B848-FAB2D583496B}">
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10267,11 +10539,27 @@
       <c r="A5" t="s">
         <v>84</v>
       </c>
+      <c r="I5">
+        <f>AVERAGEA(M27:M41)</f>
+        <v>13.614733333333334</v>
+      </c>
+      <c r="K5">
+        <f>I5/Sheet4!F35</f>
+        <v>8.8668374435567898</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>102</v>
       </c>
+      <c r="I7">
+        <f>AVERAGEA(M18:M24)</f>
+        <v>1.4868571428571429</v>
+      </c>
+      <c r="K7">
+        <f>I7/Sheet4!F37</f>
+        <v>1.9013518450858604</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -10312,7 +10600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -10322,8 +10610,12 @@
       <c r="AC17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF17" t="e">
+        <f t="shared" ref="AF17:AF80" si="0">AC17-Y17</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M18">
         <v>0.95499999999999996</v>
       </c>
@@ -10340,8 +10632,12 @@
       <c r="AC18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M19">
         <v>0.98899999999999999</v>
       </c>
@@ -10354,8 +10650,12 @@
       <c r="AC19">
         <v>112027097.152743</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF19">
+        <f t="shared" si="0"/>
+        <v>2.7126719951629639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M20">
         <v>1.181</v>
       </c>
@@ -10368,8 +10668,12 @@
       <c r="AC20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M21">
         <v>1.0229999999999999</v>
       </c>
@@ -10386,8 +10690,12 @@
       <c r="AC21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M22">
         <v>0.94</v>
       </c>
@@ -10400,8 +10708,12 @@
       <c r="AC22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M23">
         <v>1.224</v>
       </c>
@@ -10414,8 +10726,12 @@
       <c r="AC23">
         <v>107708394.320673</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF23">
+        <f t="shared" si="0"/>
+        <v>4806.3932740092278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M24">
         <v>4.0960000000000001</v>
       </c>
@@ -10428,24 +10744,36 @@
       <c r="AC24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="Y25" t="s">
         <v>7</v>
       </c>
       <c r="AC25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="Y26" t="s">
         <v>105</v>
       </c>
       <c r="AC26" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M27">
         <v>4.5599999999999996</v>
       </c>
@@ -10458,8 +10786,12 @@
       <c r="AC27">
         <v>126929669.300276</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF27">
+        <f t="shared" si="0"/>
+        <v>-6.595100000500679</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M28">
         <v>35.131999999999998</v>
       </c>
@@ -10472,8 +10804,12 @@
       <c r="AC28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M29">
         <v>6.3029999999999999</v>
       </c>
@@ -10486,8 +10822,12 @@
       <c r="AC29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M30">
         <v>5.7770000000000001</v>
       </c>
@@ -10500,8 +10840,12 @@
       <c r="AC30" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M31">
         <v>3.319</v>
       </c>
@@ -10514,8 +10858,12 @@
       <c r="AC31">
         <v>176439143.14672899</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AF31">
+        <f t="shared" si="0"/>
+        <v>2.712680995464325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M32">
         <v>34.741999999999997</v>
       </c>
@@ -10528,8 +10876,12 @@
       <c r="AC32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="13:32" x14ac:dyDescent="0.35">
       <c r="M33">
         <v>10.407</v>
       </c>
@@ -10542,8 +10894,12 @@
       <c r="AC33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="13:32" x14ac:dyDescent="0.35">
       <c r="M34">
         <v>7.4269999999999996</v>
       </c>
@@ -10556,8 +10912,12 @@
       <c r="AC34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="13:32" x14ac:dyDescent="0.35">
       <c r="M35">
         <v>8.327</v>
       </c>
@@ -10570,8 +10930,12 @@
       <c r="AC35">
         <v>169606542.258596</v>
       </c>
-    </row>
-    <row r="36" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF35">
+        <f t="shared" si="0"/>
+        <v>7911.5733680129051</v>
+      </c>
+    </row>
+    <row r="36" spans="13:32" x14ac:dyDescent="0.35">
       <c r="M36">
         <v>8.3309999999999995</v>
       </c>
@@ -10584,8 +10948,12 @@
       <c r="AC36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="13:32" x14ac:dyDescent="0.35">
       <c r="M37">
         <v>7.6740000000000004</v>
       </c>
@@ -10598,8 +10966,12 @@
       <c r="AC37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="13:32" x14ac:dyDescent="0.35">
       <c r="M38">
         <v>11.483000000000001</v>
       </c>
@@ -10612,8 +10984,12 @@
       <c r="AC38" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="13:32" x14ac:dyDescent="0.35">
       <c r="M39">
         <v>52.505000000000003</v>
       </c>
@@ -10626,8 +11002,12 @@
       <c r="AC39">
         <v>200321868.27230299</v>
       </c>
-    </row>
-    <row r="40" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF39">
+        <f t="shared" si="0"/>
+        <v>4800.5057519972324</v>
+      </c>
+    </row>
+    <row r="40" spans="13:32" x14ac:dyDescent="0.35">
       <c r="M40">
         <v>3.3109999999999999</v>
       </c>
@@ -10640,8 +11020,12 @@
       <c r="AC40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="13:32" x14ac:dyDescent="0.35">
       <c r="M41">
         <v>4.923</v>
       </c>
@@ -10654,493 +11038,741 @@
       <c r="AC41" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="13:32" x14ac:dyDescent="0.35">
       <c r="Y42">
         <v>101541518.145871</v>
       </c>
       <c r="AC42">
         <v>101534862.464516</v>
       </c>
-    </row>
-    <row r="43" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF42">
+        <f t="shared" si="0"/>
+        <v>-6655.6813549995422</v>
+      </c>
+    </row>
+    <row r="43" spans="13:32" x14ac:dyDescent="0.35">
       <c r="Y43" t="s">
         <v>15</v>
       </c>
       <c r="AC43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="13:32" x14ac:dyDescent="0.35">
       <c r="Y44" t="s">
         <v>25</v>
       </c>
       <c r="AC44" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF44" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="13:32" x14ac:dyDescent="0.35">
       <c r="Y45" t="s">
         <v>110</v>
       </c>
       <c r="AC45" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF45" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="13:32" x14ac:dyDescent="0.35">
       <c r="Y46">
         <v>90172412.803625599</v>
       </c>
       <c r="AC46">
         <v>90172412.803406596</v>
       </c>
-    </row>
-    <row r="47" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF46">
+        <f t="shared" si="0"/>
+        <v>-2.19002366065979E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="13:32" x14ac:dyDescent="0.35">
       <c r="Y47" t="s">
         <v>15</v>
       </c>
       <c r="AC47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="13:29" x14ac:dyDescent="0.35">
+      <c r="AF47" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="13:32" x14ac:dyDescent="0.35">
       <c r="Y48" t="s">
         <v>27</v>
       </c>
       <c r="AC48" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF48" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y49" t="s">
         <v>111</v>
       </c>
       <c r="AC49" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF49" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y50">
         <v>93927518.217965201</v>
       </c>
       <c r="AC50">
         <v>93931375.270440593</v>
       </c>
-    </row>
-    <row r="51" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF50">
+        <f t="shared" si="0"/>
+        <v>3857.0524753928185</v>
+      </c>
+    </row>
+    <row r="51" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y51" t="s">
         <v>15</v>
       </c>
       <c r="AC51" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF51" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y52" t="s">
         <v>29</v>
       </c>
       <c r="AC52" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF52" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y53" t="s">
         <v>112</v>
       </c>
       <c r="AC53" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="54" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF53" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y54">
         <v>123224850.59534501</v>
       </c>
       <c r="AC54">
         <v>123224850.595311</v>
       </c>
-    </row>
-    <row r="55" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF54">
+        <f t="shared" si="0"/>
+        <v>-3.4004449844360352E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y55" t="s">
         <v>15</v>
       </c>
       <c r="AC55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF55" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y56" t="s">
         <v>31</v>
       </c>
       <c r="AC56" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF56" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y57" t="s">
         <v>113</v>
       </c>
       <c r="AC57" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="58" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF57" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y58">
         <v>94751966.170714796</v>
       </c>
       <c r="AC58">
         <v>94751966.170532703</v>
       </c>
-    </row>
-    <row r="59" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF58">
+        <f t="shared" si="0"/>
+        <v>-1.8209218978881836E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y59" t="s">
         <v>15</v>
       </c>
       <c r="AC59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF59" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y60" t="s">
         <v>33</v>
       </c>
       <c r="AC60" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF60" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y61" t="s">
         <v>114</v>
       </c>
       <c r="AC61" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="62" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF61" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y62">
         <v>94870873.305524796</v>
       </c>
       <c r="AC62">
         <v>94870873.305516303</v>
       </c>
-    </row>
-    <row r="63" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF62">
+        <f t="shared" si="0"/>
+        <v>-8.4936618804931641E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y63" t="s">
         <v>15</v>
       </c>
       <c r="AC63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF63" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y64" t="s">
         <v>35</v>
       </c>
       <c r="AC64" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF64" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y65" t="s">
         <v>115</v>
       </c>
       <c r="AC65" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF65" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y66">
         <v>95134552.510833502</v>
       </c>
       <c r="AC66">
         <v>95134552.510812894</v>
       </c>
-    </row>
-    <row r="67" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF66">
+        <f t="shared" si="0"/>
+        <v>-2.0608305931091309E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y67" t="s">
         <v>15</v>
       </c>
       <c r="AC67" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF67" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y68" t="s">
         <v>37</v>
       </c>
       <c r="AC68" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="69" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF68" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y69" t="s">
         <v>116</v>
       </c>
       <c r="AC69" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF69" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y70">
         <v>90480743.744688198</v>
       </c>
       <c r="AC70">
         <v>90480743.744592607</v>
       </c>
-    </row>
-    <row r="71" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF70">
+        <f t="shared" si="0"/>
+        <v>-9.5590949058532715E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y71" t="s">
         <v>15</v>
       </c>
       <c r="AC71" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF71" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y72" t="s">
         <v>39</v>
       </c>
       <c r="AC72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF72" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y73" t="s">
         <v>117</v>
       </c>
       <c r="AC73" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="74" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF73" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y74">
         <v>94240663.503578797</v>
       </c>
       <c r="AC74">
         <v>94240663.503805697</v>
       </c>
-    </row>
-    <row r="75" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF74">
+        <f t="shared" si="0"/>
+        <v>2.2689998149871826E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y75" t="s">
         <v>15</v>
       </c>
       <c r="AC75" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF75" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y76" t="s">
         <v>41</v>
       </c>
       <c r="AC76" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF76" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y77" t="s">
         <v>118</v>
       </c>
       <c r="AC77" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="78" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF77" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y78">
         <v>123536381.81234699</v>
       </c>
       <c r="AC78">
         <v>123536381.81201901</v>
       </c>
-    </row>
-    <row r="79" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF78">
+        <f t="shared" si="0"/>
+        <v>-3.2798945903778076E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y79" t="s">
         <v>15</v>
       </c>
       <c r="AC79" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF79" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y80" t="s">
         <v>43</v>
       </c>
       <c r="AC80" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="81" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF80" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y81" t="s">
         <v>119</v>
       </c>
       <c r="AC81" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="82" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF81" t="e">
+        <f t="shared" ref="AF81:AF101" si="1">AC81-Y81</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y82">
         <v>109021716.197845</v>
       </c>
       <c r="AC82">
         <v>109028890.412902</v>
       </c>
-    </row>
-    <row r="83" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF82">
+        <f t="shared" si="1"/>
+        <v>7174.2150570005178</v>
+      </c>
+    </row>
+    <row r="83" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y83" t="s">
         <v>15</v>
       </c>
       <c r="AC83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF83" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y84" t="s">
         <v>45</v>
       </c>
       <c r="AC84" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF84" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y85" t="s">
         <v>120</v>
       </c>
       <c r="AC85" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="86" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF85" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y86">
         <v>109141807.305177</v>
       </c>
       <c r="AC86">
         <v>109145128.015489</v>
       </c>
-    </row>
-    <row r="87" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF86">
+        <f t="shared" si="1"/>
+        <v>3320.7103119939566</v>
+      </c>
+    </row>
+    <row r="87" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y87" t="s">
         <v>15</v>
       </c>
       <c r="AC87" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF87" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y88" t="s">
         <v>47</v>
       </c>
       <c r="AC88" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="89" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF88" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y89" t="s">
         <v>121</v>
       </c>
       <c r="AC89" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="90" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF89" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y90">
         <v>109410292.42209999</v>
       </c>
       <c r="AC90">
         <v>109413612.845201</v>
       </c>
-    </row>
-    <row r="91" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF90">
+        <f t="shared" si="1"/>
+        <v>3320.4231010079384</v>
+      </c>
+    </row>
+    <row r="91" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y91" t="s">
         <v>15</v>
       </c>
       <c r="AC91" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF91" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y92" t="s">
         <v>49</v>
       </c>
       <c r="AC92" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="93" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF92" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y93" t="s">
         <v>122</v>
       </c>
       <c r="AC93" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="94" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF93" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y94">
         <v>113962695.33958</v>
       </c>
       <c r="AC94">
         <v>113962695.339578</v>
       </c>
-    </row>
-    <row r="95" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF94">
+        <f t="shared" si="1"/>
+        <v>-1.9967555999755859E-6</v>
+      </c>
+    </row>
+    <row r="95" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y95" t="s">
         <v>15</v>
       </c>
       <c r="AC95" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF95" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y96" t="s">
         <v>27</v>
       </c>
       <c r="AC96" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF96" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y97" t="s">
         <v>123</v>
       </c>
       <c r="AC97" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="98" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF97" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y98">
         <v>193256471.080639</v>
       </c>
       <c r="AC98">
         <v>193256471.080663</v>
       </c>
-    </row>
-    <row r="99" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF98">
+        <f t="shared" si="1"/>
+        <v>2.3990869522094727E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y99" t="s">
         <v>15</v>
       </c>
       <c r="AC99" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="100" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF99" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y100" t="s">
         <v>29</v>
       </c>
       <c r="AC100" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="101" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF100" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y101" t="s">
         <v>124</v>
       </c>
       <c r="AC101" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="102" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AF101" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y102">
         <v>181548379.833662</v>
       </c>
       <c r="AC102">
         <v>181548379.833507</v>
+      </c>
+      <c r="AF102">
+        <f>AC102-Y102</f>
+        <v>-1.5500187873840332E-4</v>
       </c>
     </row>
   </sheetData>
@@ -11150,11 +11782,1267 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60375612-E600-4F99-8A3E-7E40E03B84D0}">
+  <dimension ref="A1:W90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T53" sqref="T53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1">
+        <v>8</v>
+      </c>
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+      <c r="P6" t="s">
+        <v>269</v>
+      </c>
+      <c r="T6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>112027094.440063</v>
+      </c>
+      <c r="F7">
+        <v>112027094.440063</v>
+      </c>
+      <c r="P7">
+        <v>112166689.67720599</v>
+      </c>
+      <c r="T7">
+        <v>112166689.67720599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" t="s">
+        <v>270</v>
+      </c>
+      <c r="T10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>107703587.927398</v>
+      </c>
+      <c r="F11">
+        <v>107703587.92739899</v>
+      </c>
+      <c r="P11">
+        <v>107793247.89710499</v>
+      </c>
+      <c r="T11">
+        <v>107793247.89710499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" t="s">
+        <v>271</v>
+      </c>
+      <c r="T14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>126929675.89555</v>
+      </c>
+      <c r="F15">
+        <v>126929675.36921801</v>
+      </c>
+      <c r="P15">
+        <v>127029145.26279999</v>
+      </c>
+      <c r="T15">
+        <v>127029145.26279999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" t="s">
+        <v>249</v>
+      </c>
+      <c r="P18" t="s">
+        <v>272</v>
+      </c>
+      <c r="T18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>176439140.434055</v>
+      </c>
+      <c r="F19">
+        <v>176439140.43405199</v>
+      </c>
+      <c r="P19">
+        <v>176578735.67119101</v>
+      </c>
+      <c r="T19">
+        <v>176578735.67119101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" t="s">
+        <v>273</v>
+      </c>
+      <c r="T22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>169598630.68522799</v>
+      </c>
+      <c r="F23">
+        <v>169598630.68522799</v>
+      </c>
+      <c r="P23">
+        <v>169695071.801819</v>
+      </c>
+      <c r="T23">
+        <v>169695071.801819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="P26" t="s">
+        <v>274</v>
+      </c>
+      <c r="T26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>200317067.76614201</v>
+      </c>
+      <c r="F27">
+        <v>200317067.76674399</v>
+      </c>
+      <c r="P27">
+        <v>200416537.13401699</v>
+      </c>
+      <c r="T27">
+        <v>200416537.13401699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="P29" t="s">
+        <v>275</v>
+      </c>
+      <c r="T29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>101541243.525012</v>
+      </c>
+      <c r="F30">
+        <v>101541243.525006</v>
+      </c>
+      <c r="P30">
+        <v>101746621.32195801</v>
+      </c>
+      <c r="T30">
+        <v>101746621.32195801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" t="s">
+        <v>15</v>
+      </c>
+      <c r="T31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="P33" t="s">
+        <v>276</v>
+      </c>
+      <c r="T33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>90172412.803804696</v>
+      </c>
+      <c r="F34">
+        <v>90172412.803541899</v>
+      </c>
+      <c r="P34">
+        <v>93282658.528780401</v>
+      </c>
+      <c r="T34">
+        <v>93282658.528786793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" t="s">
+        <v>277</v>
+      </c>
+      <c r="T37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>93931375.270376801</v>
+      </c>
+      <c r="F38">
+        <v>93931375.270339996</v>
+      </c>
+      <c r="P38">
+        <v>97080300.000752002</v>
+      </c>
+      <c r="T38">
+        <v>97080300.000666305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="P39" t="s">
+        <v>15</v>
+      </c>
+      <c r="T39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" t="s">
+        <v>255</v>
+      </c>
+      <c r="P41" t="s">
+        <v>278</v>
+      </c>
+      <c r="T41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>123224850.595469</v>
+      </c>
+      <c r="F42">
+        <v>123224850.595331</v>
+      </c>
+      <c r="P42">
+        <v>126510978.290611</v>
+      </c>
+      <c r="T42">
+        <v>126510978.290803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="P43" t="s">
+        <v>15</v>
+      </c>
+      <c r="T43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" t="s">
+        <v>279</v>
+      </c>
+      <c r="T45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>94751966.170613497</v>
+      </c>
+      <c r="F46">
+        <v>94751966.171008602</v>
+      </c>
+      <c r="P46">
+        <v>97915316.036911994</v>
+      </c>
+      <c r="T46">
+        <v>97915316.036808401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="P47" t="s">
+        <v>15</v>
+      </c>
+      <c r="T47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" t="s">
+        <v>33</v>
+      </c>
+      <c r="T48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" t="s">
+        <v>257</v>
+      </c>
+      <c r="P49" t="s">
+        <v>280</v>
+      </c>
+      <c r="T49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>94870873.305423394</v>
+      </c>
+      <c r="F50">
+        <v>94870873.305525005</v>
+      </c>
+      <c r="P50">
+        <v>98034068.610294595</v>
+      </c>
+      <c r="T50">
+        <v>98034068.610238895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" t="s">
+        <v>35</v>
+      </c>
+      <c r="T52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" t="s">
+        <v>258</v>
+      </c>
+      <c r="P53" t="s">
+        <v>281</v>
+      </c>
+      <c r="T53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>95134552.510901406</v>
+      </c>
+      <c r="F54">
+        <v>95134552.511010796</v>
+      </c>
+      <c r="P54">
+        <v>98289264.808821201</v>
+      </c>
+      <c r="T54">
+        <v>98289264.808720604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" t="s">
+        <v>15</v>
+      </c>
+      <c r="T55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="P56" t="s">
+        <v>37</v>
+      </c>
+      <c r="T56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>237</v>
+      </c>
+      <c r="F57" t="s">
+        <v>259</v>
+      </c>
+      <c r="P57" t="s">
+        <v>282</v>
+      </c>
+      <c r="T57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>90480743.744899198</v>
+      </c>
+      <c r="F58">
+        <v>90480743.744667605</v>
+      </c>
+      <c r="P58">
+        <v>93584760.283616096</v>
+      </c>
+      <c r="T58">
+        <v>93584760.283620805</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="P59" t="s">
+        <v>15</v>
+      </c>
+      <c r="T59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" t="s">
+        <v>39</v>
+      </c>
+      <c r="P60" t="s">
+        <v>39</v>
+      </c>
+      <c r="T60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>238</v>
+      </c>
+      <c r="F61" t="s">
+        <v>260</v>
+      </c>
+      <c r="P61" t="s">
+        <v>283</v>
+      </c>
+      <c r="T61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>94240663.503565207</v>
+      </c>
+      <c r="F62">
+        <v>94240663.503572404</v>
+      </c>
+      <c r="P62">
+        <v>97383388.844027296</v>
+      </c>
+      <c r="T62">
+        <v>97383388.844013393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="P63" t="s">
+        <v>15</v>
+      </c>
+      <c r="T63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+      <c r="P64" t="s">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" t="s">
+        <v>261</v>
+      </c>
+      <c r="P65" t="s">
+        <v>284</v>
+      </c>
+      <c r="T65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>123536381.81179801</v>
+      </c>
+      <c r="F66">
+        <v>123536381.81185</v>
+      </c>
+      <c r="P66">
+        <v>126819498.779972</v>
+      </c>
+      <c r="T66">
+        <v>126819498.780063</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="P67" t="s">
+        <v>15</v>
+      </c>
+      <c r="T67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="P68" t="s">
+        <v>43</v>
+      </c>
+      <c r="T68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>240</v>
+      </c>
+      <c r="F69" t="s">
+        <v>262</v>
+      </c>
+      <c r="P69" t="s">
+        <v>285</v>
+      </c>
+      <c r="T69" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>109028890.41292199</v>
+      </c>
+      <c r="F70">
+        <v>109028890.41303401</v>
+      </c>
+      <c r="P70">
+        <v>112269182.448567</v>
+      </c>
+      <c r="T70">
+        <v>112269182.448539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="P71" t="s">
+        <v>15</v>
+      </c>
+      <c r="T71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>45</v>
+      </c>
+      <c r="P72" t="s">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>241</v>
+      </c>
+      <c r="F73" t="s">
+        <v>263</v>
+      </c>
+      <c r="P73" t="s">
+        <v>286</v>
+      </c>
+      <c r="T73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>109141807.305456</v>
+      </c>
+      <c r="F74">
+        <v>109141807.30525599</v>
+      </c>
+      <c r="P74">
+        <v>112385247.341612</v>
+      </c>
+      <c r="T74">
+        <v>112385247.341592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="P75" t="s">
+        <v>15</v>
+      </c>
+      <c r="T75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" t="s">
+        <v>47</v>
+      </c>
+      <c r="P76" t="s">
+        <v>47</v>
+      </c>
+      <c r="T76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>242</v>
+      </c>
+      <c r="F77" t="s">
+        <v>264</v>
+      </c>
+      <c r="P77" t="s">
+        <v>287</v>
+      </c>
+      <c r="T77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>109413612.8452</v>
+      </c>
+      <c r="F78">
+        <v>109410292.421923</v>
+      </c>
+      <c r="P78">
+        <v>112651392.656876</v>
+      </c>
+      <c r="T78">
+        <v>112651392.656579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="P79" t="s">
+        <v>15</v>
+      </c>
+      <c r="T79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" t="s">
+        <v>49</v>
+      </c>
+      <c r="P80" t="s">
+        <v>49</v>
+      </c>
+      <c r="T80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" t="s">
+        <v>265</v>
+      </c>
+      <c r="P81" t="s">
+        <v>288</v>
+      </c>
+      <c r="T81" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>113962695.339737</v>
+      </c>
+      <c r="F82">
+        <v>113962695.339597</v>
+      </c>
+      <c r="P82">
+        <v>117243943.812691</v>
+      </c>
+      <c r="T82">
+        <v>117243943.813016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="P83" t="s">
+        <v>15</v>
+      </c>
+      <c r="T83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>27</v>
+      </c>
+      <c r="P84" t="s">
+        <v>27</v>
+      </c>
+      <c r="T84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="F85" t="s">
+        <v>266</v>
+      </c>
+      <c r="P85" t="s">
+        <v>289</v>
+      </c>
+      <c r="T85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>193255143.936683</v>
+      </c>
+      <c r="F86">
+        <v>193256471.080621</v>
+      </c>
+      <c r="P86">
+        <v>196019056.931986</v>
+      </c>
+      <c r="T86">
+        <v>196019056.932051</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="P87" t="s">
+        <v>15</v>
+      </c>
+      <c r="T87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" t="s">
+        <v>29</v>
+      </c>
+      <c r="P88" t="s">
+        <v>29</v>
+      </c>
+      <c r="T88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>245</v>
+      </c>
+      <c r="F89" t="s">
+        <v>267</v>
+      </c>
+      <c r="P89" t="s">
+        <v>290</v>
+      </c>
+      <c r="T89" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>181548379.833639</v>
+      </c>
+      <c r="F90">
+        <v>181548379.833453</v>
+      </c>
+      <c r="P90">
+        <v>184212437.41777301</v>
+      </c>
+      <c r="T90">
+        <v>184212437.41779301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C165D7-3A33-4942-895E-CD549A23F3F0}">
   <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J28"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11487,82 +13375,90 @@
         <v>101746629.742377</v>
       </c>
     </row>
-    <row r="33" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <f>AVERAGEA(J14:J28)</f>
+        <v>1.5354666666666668</v>
+      </c>
       <c r="R35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R36">
         <v>93282658.528857306</v>
       </c>
     </row>
-    <row r="37" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <f>AVERAGEA(J4:J10)</f>
+        <v>0.78200000000000003</v>
+      </c>
       <c r="R37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R40">
         <v>97080300.0006091</v>
       </c>
     </row>
-    <row r="41" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R43" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R44">
         <v>126510978.29053999</v>
       </c>
     </row>
-    <row r="45" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R47" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:18" x14ac:dyDescent="0.35">
       <c r="R48">
         <v>97915316.036820307</v>
       </c>
@@ -11793,7 +13689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345880AD-3565-4048-AE03-5A218F93D144}">
   <dimension ref="A1:X96"/>
   <sheetViews>
